--- a/MIDI_CV_CONV ブロック図 (ラッチ有り).xlsx
+++ b/MIDI_CV_CONV ブロック図 (ラッチ有り).xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\gizmo\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\gizmo\Documents\Develop\MIDI_CV_CONV\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,21 +24,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
-  <si>
-    <t>Latch</t>
-    <phoneticPr fontId="1"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
     <t>CV (Mod)</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>CV (Freq)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>GATE</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -104,11 +96,19 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>2018.12.21</t>
+    <t>3.3V</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>3.3V</t>
+    <t>GATE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SPI</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2019.01.04</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -480,13 +480,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -498,8 +498,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3314700" y="2571750"/>
-          <a:ext cx="857250" cy="857250"/>
+          <a:off x="2663112" y="2274337"/>
+          <a:ext cx="894184" cy="874745"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -545,16 +545,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>9720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>9720</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -563,21 +563,13 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2095500" y="2743200"/>
-          <a:ext cx="857250" cy="1714500"/>
+          <a:off x="2663112" y="3333751"/>
+          <a:ext cx="894184" cy="699796"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:prstDash val="dash"/>
-        </a:ln>
+        <a:ln/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -602,14 +594,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>DFF</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>Latch</a:t>
+            <a:t>Buffer</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
@@ -625,7 +610,7 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -639,8 +624,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2400300" y="3257550"/>
-          <a:ext cx="914400" cy="0"/>
+          <a:off x="1574541" y="2974133"/>
+          <a:ext cx="1088571" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -668,65 +653,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>58314</xdr:colOff>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="13" name="Straight Arrow Connector 12"/>
-        <xdr:cNvCxnSpPr>
-          <a:endCxn id="9" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1543050" y="3600450"/>
-          <a:ext cx="552450" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:colOff>38877</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>174948</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -735,8 +671,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="1714500" y="3476625"/>
-          <a:ext cx="190500" cy="342900"/>
+          <a:off x="2002192" y="3498980"/>
+          <a:ext cx="174950" cy="349897"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -761,26 +697,28 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="16" name="Straight Arrow Connector 15"/>
-        <xdr:cNvCxnSpPr/>
+        <xdr:cNvPr id="28" name="Straight Arrow Connector 27"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="40" idx="2"/>
+        </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1552575" y="3943350"/>
-          <a:ext cx="542925" cy="0"/>
+          <a:off x="3557296" y="2449286"/>
+          <a:ext cx="1419031" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -791,103 +729,6 @@
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="19" name="Straight Arrow Connector 18"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="9" idx="0"/>
-          <a:endCxn id="8" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="2524125" y="2571750"/>
-          <a:ext cx="0" cy="171450"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="28" name="Straight Arrow Connector 27"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3124200" y="1885950"/>
-          <a:ext cx="914400" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
           <a:schemeClr val="accent2"/>
         </a:lnRef>
         <a:fillRef idx="0">
@@ -905,13 +746,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -923,8 +764,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3124200" y="2400300"/>
-          <a:ext cx="914400" cy="0"/>
+          <a:off x="3557296" y="2974133"/>
+          <a:ext cx="1419031" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -999,104 +840,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="37" name="Straight Arrow Connector 36"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3981450" y="3943350"/>
-          <a:ext cx="704850" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="39" name="Straight Connector 38"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="4324350" y="3771900"/>
-          <a:ext cx="190500" cy="342900"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>28</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1142,13 +892,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>28</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1194,16 +944,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>174948</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1212,8 +962,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3926633" y="3673929"/>
-          <a:ext cx="524847" cy="699795"/>
+          <a:off x="2663112" y="4373724"/>
+          <a:ext cx="894184" cy="699795"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1260,16 +1010,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>165229</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>165229</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1278,8 +1028,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5151276" y="4014107"/>
-          <a:ext cx="349897" cy="349898"/>
+          <a:off x="4451480" y="3673929"/>
+          <a:ext cx="349898" cy="349898"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -1312,15 +1062,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>28</xdr:col>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1330,8 +1080,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4976327" y="3848878"/>
-          <a:ext cx="349897" cy="349898"/>
+          <a:off x="4276531" y="3498980"/>
+          <a:ext cx="349898" cy="349898"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -1366,62 +1116,13 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="56" name="Straight Arrow Connector 55"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="42" idx="3"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4451480" y="4023827"/>
-          <a:ext cx="524847" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1431,8 +1132,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5048250" y="3943350"/>
-          <a:ext cx="342900" cy="342900"/>
+          <a:off x="4451480" y="4723622"/>
+          <a:ext cx="349898" cy="349898"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -1465,15 +1166,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>9720</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>9720</xdr:colOff>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1483,8 +1184,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4876800" y="3771900"/>
-          <a:ext cx="342900" cy="342900"/>
+          <a:off x="4286251" y="4548673"/>
+          <a:ext cx="349898" cy="349898"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -1517,55 +1218,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="63" name="Elbow Connector 62"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3676650" y="3429000"/>
-          <a:ext cx="1200150" cy="523875"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -5555"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>4</xdr:row>
@@ -1764,220 +1416,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="76" name="Pentagon 75"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4038600" y="1714500"/>
-          <a:ext cx="514350" cy="342900"/>
-        </a:xfrm>
-        <a:prstGeom prst="homePlate">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:prstDash val="dash"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>LPF</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="77" name="Pentagon 76"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4038600" y="2228850"/>
-          <a:ext cx="514350" cy="342900"/>
-        </a:xfrm>
-        <a:prstGeom prst="homePlate">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:prstDash val="dash"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>LPF</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="78" name="Straight Arrow Connector 77"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="76" idx="3"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4552950" y="1885950"/>
-          <a:ext cx="685800" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="81" name="Straight Arrow Connector 80"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4552950" y="2400300"/>
-          <a:ext cx="685800" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>8</xdr:row>
@@ -2053,6 +1491,197 @@
         <a:xfrm flipH="1">
           <a:off x="1193132" y="1704474"/>
           <a:ext cx="4762" cy="511342"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="Elbow Connector 20"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="1963317" y="4023827"/>
+          <a:ext cx="1049693" cy="349898"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="54" name="Straight Arrow Connector 53"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1574541" y="3673929"/>
+          <a:ext cx="1088571" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>9720</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="57" name="Straight Arrow Connector 56"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="9" idx="3"/>
+          <a:endCxn id="53" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3557296" y="3673929"/>
+          <a:ext cx="719235" cy="9720"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>9720</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="61" name="Straight Arrow Connector 60"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3557296" y="4723622"/>
+          <a:ext cx="719235" cy="9720"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2344,125 +1973,114 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:AH27"/>
+  <dimension ref="B2:AD27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="11" max="11" width="2.5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="2.5" customWidth="1"/>
+    <col min="13" max="13" width="2.5" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="2.5" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="2.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:33" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:29" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="2:29" x14ac:dyDescent="0.15">
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="2:29" x14ac:dyDescent="0.15">
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="L7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="2:29" x14ac:dyDescent="0.15">
+      <c r="B8" t="s">
         <v>8</v>
       </c>
+      <c r="L8" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="3" spans="2:33" x14ac:dyDescent="0.15">
-      <c r="B3" t="s">
+    <row r="9" spans="2:29" x14ac:dyDescent="0.15">
+      <c r="I9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="2:29" x14ac:dyDescent="0.15">
+      <c r="I10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="2:29" x14ac:dyDescent="0.15">
+      <c r="U14" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="2:29" x14ac:dyDescent="0.15">
+      <c r="AA15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="11:30" x14ac:dyDescent="0.15">
+      <c r="K17" t="s">
         <v>18</v>
       </c>
+      <c r="U17" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="7" spans="2:33" x14ac:dyDescent="0.15">
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="L7" t="s">
+    <row r="18" spans="11:30" x14ac:dyDescent="0.15">
+      <c r="AA18" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="11:30" x14ac:dyDescent="0.15">
+      <c r="K21" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="2:33" x14ac:dyDescent="0.15">
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="L8" t="s">
-        <v>12</v>
+    <row r="22" spans="11:30" x14ac:dyDescent="0.15">
+      <c r="M22">
+        <v>6</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="9" spans="2:33" x14ac:dyDescent="0.15">
-      <c r="I9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="2:33" x14ac:dyDescent="0.15">
-      <c r="I10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="2:33" x14ac:dyDescent="0.15">
-      <c r="R14" t="s">
-        <v>2</v>
-      </c>
-      <c r="AE14" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="2:33" x14ac:dyDescent="0.15">
-      <c r="AE15" t="s">
-        <v>4</v>
-      </c>
-      <c r="AG15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="11:34" x14ac:dyDescent="0.15">
-      <c r="R17" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="11:34" x14ac:dyDescent="0.15">
-      <c r="AE18" t="s">
-        <v>4</v>
-      </c>
-      <c r="AG18" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="11:34" x14ac:dyDescent="0.15">
-      <c r="P19" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="11:34" x14ac:dyDescent="0.15">
-      <c r="R23" t="s">
+    <row r="27" spans="11:30" x14ac:dyDescent="0.15">
+      <c r="AB27" t="s">
         <v>3</v>
-      </c>
-      <c r="AE23" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="11:34" x14ac:dyDescent="0.15">
-      <c r="T24">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="11:34" x14ac:dyDescent="0.15">
-      <c r="K25">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="11:34" x14ac:dyDescent="0.15">
-      <c r="AE26" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="27" spans="11:34" x14ac:dyDescent="0.15">
-      <c r="K27" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF27" t="s">
-        <v>4</v>
-      </c>
-      <c r="AH27" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
